--- a/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ PO _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ PO _ 5 yr.xlsx
@@ -20,40 +20,40 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1964-1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1969-1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984-1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2023</t>
+    <t xml:space="preserve">1963-1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968-1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973-1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -440,37 +440,37 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="F2" t="n">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="G2" t="n">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="H2" t="n">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="I2" t="n">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="J2" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="K2" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L2" t="n">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M2" t="n">
-        <v>141</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -481,37 +481,37 @@
         <v>190</v>
       </c>
       <c r="C3" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="F3" t="n">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="G3" t="n">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="H3" t="n">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="I3" t="n">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="J3" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="L3" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="M3" t="n">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -574,40 +574,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="C2" t="n">
+        <v>212</v>
+      </c>
+      <c r="D2" t="n">
         <v>206</v>
       </c>
-      <c r="D2" t="n">
-        <v>250</v>
-      </c>
       <c r="E2" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F2" t="n">
-        <v>327</v>
+        <v>428</v>
       </c>
       <c r="G2" t="n">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="H2" t="n">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="I2" t="n">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>536</v>
       </c>
       <c r="L2" t="n">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="M2" t="n">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -615,40 +615,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C3" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D3" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="G3" t="n">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="H3" t="n">
         <v>234</v>
       </c>
       <c r="I3" t="n">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="K3" t="n">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="L3" t="n">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="M3" t="n">
-        <v>271</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -711,40 +711,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H2" t="n">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="I2" t="n">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="L2" t="n">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="M2" t="n">
-        <v>103</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -752,40 +752,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C3" t="n">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="D3" t="n">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G3" t="n">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H3" t="n">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="I3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="L3" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -848,40 +848,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G2" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M2" t="n">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -889,40 +889,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G3" t="n">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="J3" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K3" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
